--- a/CalcOutput/PitchEqns.xlsx
+++ b/CalcOutput/PitchEqns.xlsx
@@ -344,114 +344,114 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="n">
-        <v>0.00379866942136313</v>
+        <v>0.00608883429203496</v>
       </c>
       <c r="B1" t="n">
-        <v>-0.0353021226437704</v>
+        <v>-0.0175131295736708</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
-        <v>-0.000604659262212451</v>
+        <v>-0.000576416619771311</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0507397404539171</v>
+        <v>0.0727627847056778</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="n">
-        <v>-0.00310689463384191</v>
+        <v>-0.0031206859964281</v>
       </c>
       <c r="B3" t="n">
-        <v>0.260000099260324</v>
+        <v>0.29511000506986</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="n">
-        <v>0.00323477887341672</v>
+        <v>0.0070188703343616</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0253092506637835</v>
+        <v>-0.0460215205216533</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="n">
-        <v>-0.00104693616977638</v>
+        <v>-0.000930450724035223</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0819612991376818</v>
+        <v>0.0914160872067665</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="n">
-        <v>-0.00383817797348218</v>
+        <v>-0.00371074193857551</v>
       </c>
       <c r="B6" t="n">
-        <v>0.325518736281175</v>
+        <v>0.354864575417157</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="n">
-        <v>0.00593740718224457</v>
+        <v>0.00773514152673103</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.162027387664064</v>
+        <v>-0.0915815999898393</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="n">
-        <v>-0.000810595028079011</v>
+        <v>-0.000583936216418073</v>
       </c>
       <c r="B8" t="n">
-        <v>0.063423602390478</v>
+        <v>0.0783507720320212</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="n">
-        <v>-0.00341824264697565</v>
+        <v>-0.00342901587387804</v>
       </c>
       <c r="B9" t="n">
-        <v>0.298128037530948</v>
+        <v>0.33142131727591</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="n">
-        <v>0.00673626034784471</v>
+        <v>0.00664264299264749</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.197818470628767</v>
+        <v>-0.0351847653972643</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="n">
-        <v>-0.000678441344688699</v>
+        <v>-0.000692440472029338</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0539807592808432</v>
+        <v>0.0729626400416282</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="n">
-        <v>-0.00259225622045248</v>
+        <v>-0.00285691633938786</v>
       </c>
       <c r="B12" t="n">
-        <v>0.220010942704864</v>
+        <v>0.288228479195512</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="n">
-        <v>-0.000475746489035625</v>
+        <v>-0.000509580612836343</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0531388662652735</v>
+        <v>0.0501315766734615</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="n">
-        <v>0.00180144518601237</v>
+        <v>0.00614888577083178</v>
       </c>
       <c r="B14" t="n">
-        <v>0.163373543792948</v>
+        <v>-0.0492486139661487</v>
       </c>
     </row>
   </sheetData>
